--- a/assets/modules/seagrass-biomass/marinegeo_spreadsheet_seagrass_biomass.xlsx
+++ b/assets/modules/seagrass-biomass/marinegeo_spreadsheet_seagrass_biomass.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Dropbox (Smithsonian)\MarineGEO\Research\Modules\Seagrasses\seagrass-biomass\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\spreadsheets_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC75C0A6-FD46-4104-94E3-57AA38AF5BD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4835DCAD-3EE1-447B-BEE7-528D7ED4EC0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>data_entry_year</t>
-  </si>
-  <si>
-    <t>v0.4.0</t>
   </si>
   <si>
     <t>Day of final data entry</t>
@@ -397,6 +394,9 @@
   </si>
   <si>
     <t>The date the sample was collected in the field (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>v0.5.0</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1209,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="161.1" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1">
@@ -1273,7 +1273,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.950000000000003" customHeight="1">
@@ -1389,16 +1389,16 @@
         <v>62</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>44</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1706,13 +1706,13 @@
         <v>68</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>88</v>
-      </c>
       <c r="H1" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>69</v>
@@ -1721,7 +1721,7 @@
         <v>70</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2096,13 +2096,13 @@
         <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -2114,13 +2114,13 @@
         <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -2132,13 +2132,13 @@
         <v>75</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -2230,7 +2230,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>2</v>
@@ -2295,10 +2295,10 @@
         <v>56</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>16</v>
@@ -2401,10 +2401,10 @@
         <v>56</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>16</v>
@@ -2435,10 +2435,10 @@
         <v>56</v>
       </c>
       <c r="B26" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>16</v>
@@ -2454,7 +2454,7 @@
         <v>44</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>16</v>
@@ -2467,10 +2467,10 @@
         <v>56</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>16</v>
@@ -2498,7 +2498,7 @@
         <v>61</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>2</v>
@@ -2581,10 +2581,10 @@
         <v>57</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>16</v>
@@ -2597,10 +2597,10 @@
         <v>57</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>16</v>
@@ -2613,10 +2613,10 @@
         <v>57</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="32" t="s">
         <v>16</v>
@@ -2669,10 +2669,10 @@
         <v>57</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>16</v>
